--- a/public/uploads/maudangkytimviec/Mau-danh-sach-dang-ky-tim-viec.xlsx
+++ b/public/uploads/maudangkytimviec/Mau-danh-sach-dang-ky-tim-viec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF28C9-D219-4326-8B07-06A0D0719F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF652A88-D705-4C6F-BD42-F8271E8F4519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{318393FD-256C-45FF-8F1D-20ADE75877C0}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="chucvu" sheetId="7" r:id="rId6"/>
     <sheet name="loaiHDKT" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="196">
   <si>
     <t>stt</t>
   </si>
@@ -617,6 +617,9 @@
   <si>
     <t>Nhận được việc</t>
   </si>
+  <si>
+    <t>Ngay sinh</t>
+  </si>
 </sst>
 </file>
 
@@ -1086,7 +1089,7 @@
   <dimension ref="A1:AQ1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1150,9 @@
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="12" t="s">
+        <v>195</v>
+      </c>
       <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
